--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1s_day_1_solvency_ii_reporting_solo.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1s_day_1_solvency_ii_reporting_solo.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <definedName name="S.28.02.01.06.TD" localSheetId="25">S.28.02.01.06!$C$6:$E$13</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -259,7 +259,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -2682,7 +2682,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2690,6 +2690,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2698,6 +2699,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2706,6 +2708,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2713,6 +2716,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3218,9 +3222,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3270,9 +3274,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3475,9 +3479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3525,9 +3529,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -3787,9 +3791,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4066,12 +4070,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4112,7 +4116,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>168</v>
       </c>
@@ -4202,9 +4206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4479,11 +4483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4518,7 +4522,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>168</v>
       </c>
@@ -4586,9 +4590,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4825,9 +4829,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4903,9 +4907,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5271,9 +5275,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5347,9 +5351,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5483,9 +5487,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5814,9 +5818,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5968,9 +5972,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6076,9 +6080,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6632,9 +6636,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6731,9 +6735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6928,9 +6932,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7077,9 +7081,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -7258,7 +7262,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9086,9 +9090,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -9264,9 +9268,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -9537,11 +9541,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -9669,10 +9673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -9761,9 +9765,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -10907,9 +10911,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -11843,9 +11847,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
